--- a/Brain/Interview/NodeJS/NodeJS.xlsx
+++ b/Brain/Interview/NodeJS/NodeJS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Interview\NodeJS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Brain\Interview\NodeJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91069E8A-7022-420D-8B36-39DFAA88E885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CJS and ESM" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -988,7 +987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1005,7 +1004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA8D513-28ED-4192-A178-4275F14D6B9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1021,11 +1020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB3C89F-CFF8-49AD-914D-B346723AA524}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1037,10 +1036,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6326A8-0ACB-464E-91E7-56CB6A3C99D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
@@ -1053,11 +1052,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BB4DA4-0CD0-41BC-96F0-57E45D263691}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
